--- a/data/MUNG BEAN_ Add any other key traits of interest.(1-5000).xlsx
+++ b/data/MUNG BEAN_ Add any other key traits of interest.(1-5000).xlsx
@@ -1,165 +1,148 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20215"/>
-  <x:workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qinzen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\projects\agg-priority-traits\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD74628D-BE06-4FC1-BE04-2187DD70E9AC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:calcPr calcId="152511"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCAEB16-3BAC-4E34-A8C3-8C67E24F7BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <x:si>
-    <x:t xml:space="preserve">ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Start time</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Completion time</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Email</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">MUNG BEAN: Add any other key traits of interest.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">anonymous</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">maturity lodging shattering determinancy</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">lodging</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Start time</t>
+  </si>
+  <si>
+    <t>Completion time</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>MUNG BEAN: Add any other key traits of interest.</t>
+  </si>
+  <si>
+    <t>anonymous</t>
+  </si>
+  <si>
+    <t>lodging</t>
+  </si>
+  <si>
+    <t>maturity;lodging;shattering;determinancy</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="2">
-    <x:numFmt numFmtId="167" formatCode="m/d/yyyy"/>
-    <x:numFmt numFmtId="166" formatCode="m/d/yy\ h:mm:ss"/>
-  </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:u/>
-      <x:sz val="11"/>
-      <x:color theme="10"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0"/>
-  </x:cellStyleXfs>
-  <x:cellXfs count="11">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="0" applyNumberFormat="1" applyAlignment="1">
-      <x:alignment wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <x:alignment wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="0" applyNumberFormat="1"/>
-  </x:cellXfs>
-  <x:cellStyles count="2">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-  </x:cellStyles>
-  <x:dxfs count="4">
-    <x:dxf>
-      <x:numFmt numFmtId="0" formatCode="General"/>
-    </x:dxf>
-    <x:dxf>
-      <x:numFmt numFmtId="30" formatCode="@"/>
-    </x:dxf>
-    <x:dxf>
-      <x:numFmt numFmtId="167" formatCode="m/d/yyyy"/>
-    </x:dxf>
-    <x:dxf>
-      <x:numFmt numFmtId="166" formatCode="m/d/yy\ h:mm:ss"/>
-    </x:dxf>
-  </x:dxfs>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="m/d/yy\ h:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F4" insertRow="1" totalsRowShown="0">
-  <x:autoFilter ref="A1:F4"/>
-  <x:tableColumns count="6">
-    <x:tableColumn id="1" uniqueName="1" name="ID" dataDxfId="0"/>
-    <x:tableColumn id="2" uniqueName="2" name="Start time" dataDxfId="3"/>
-    <x:tableColumn id="3" uniqueName="3" name="Completion time" dataDxfId="3"/>
-    <x:tableColumn id="4" uniqueName="4" name="Email" dataDxfId="0"/>
-    <x:tableColumn id="5" uniqueName="5" name="Name" dataDxfId="0"/>
-    <x:tableColumn id="6" uniqueName="6" name="MUNG BEAN: Add any other key traits of interest." dataDxfId="0"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F3" totalsRowShown="0">
+  <autoFilter ref="A1:F3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Start time" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Completion time" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="MUNG BEAN: Add any other key traits of interest." dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,107 +441,108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="L17" sqref="L17"/>
-    </x:sheetView>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:cols>
-    <x:col min="1" max="1" width="20" hidden="0" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="20" hidden="0" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="20" hidden="0" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="20" hidden="0" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="20" hidden="0" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="20" hidden="0" bestFit="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" hidden="0">
-      <x:c r="A1" s="10" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="10" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="10" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="10" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="10" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="F1" s="10" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" hidden="0">
-      <x:c r="A2">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="2">
-        <x:v>45245.5665277778</x:v>
-      </x:c>
-      <x:c r="C2" s="2">
-        <x:v>45245.5665277778</x:v>
-      </x:c>
-      <x:c r="D2" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E2" s="10" t="s"/>
-      <x:c r="F2" s="10" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" hidden="0">
-      <x:c r="A3">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B3" s="2">
-        <x:v>45245.5666435185</x:v>
-      </x:c>
-      <x:c r="C3" s="2">
-        <x:v>45245.5669675926</x:v>
-      </x:c>
-      <x:c r="D3" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E3" s="10" t="s"/>
-      <x:c r="F3" s="10" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" hidden="0">
-      <x:c r="A4">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B4" s="2">
-        <x:v>45245.569837963</x:v>
-      </x:c>
-      <x:c r="C4" s="2">
-        <x:v>45245.569837963</x:v>
-      </x:c>
-      <x:c r="D4" s="10" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="E4" s="10" t="s"/>
-      <x:c r="F4" s="10" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <x:tableParts count="1">
-    <x:tablePart r:id="Rb945e0e9ed864d13"/>
-  </x:tableParts>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45245.566527777803</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45245.566527777803</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45245.566643518498</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45245.566967592596</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;12&amp;K000000 OFFICIAL</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Purpose xmlns="0300b21e-531a-4772-9203-6a4303b705e0" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0300b21e-531a-4772-9203-6a4303b705e0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="940c15d3-075c-4d38-96df-9b897bf27e7c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010066035CC8AFB69D448D62395E80BA126E" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="85b8460c1cd41dbb45412405d11dcdac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0300b21e-531a-4772-9203-6a4303b705e0" xmlns:ns3="940c15d3-075c-4d38-96df-9b897bf27e7c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fd0a69bf79d98ca5e5083c25fbc178dd" ns2:_="" ns3:_="">
     <xsd:import namespace="0300b21e-531a-4772-9203-6a4303b705e0"/>
@@ -809,35 +793,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Purpose xmlns="0300b21e-531a-4772-9203-6a4303b705e0" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="0300b21e-531a-4772-9203-6a4303b705e0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="940c15d3-075c-4d38-96df-9b897bf27e7c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBBDF5F0-2117-48C6-BBDD-37748D961F74}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C80F7124-1D58-4585-ADFE-9342EE43AA7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="0300b21e-531a-4772-9203-6a4303b705e0"/>
+    <ds:schemaRef ds:uri="940c15d3-075c-4d38-96df-9b897bf27e7c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1F5C3ED-E4B3-4A42-A218-530770868E55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1F5C3ED-E4B3-4A42-A218-530770868E55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C80F7124-1D58-4585-ADFE-9342EE43AA7F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBBDF5F0-2117-48C6-BBDD-37748D961F74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0300b21e-531a-4772-9203-6a4303b705e0"/>
+    <ds:schemaRef ds:uri="940c15d3-075c-4d38-96df-9b897bf27e7c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>